--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.5142603940041</v>
+        <v>259.9665894787404</v>
       </c>
       <c r="AB2" t="n">
-        <v>262.0382600838233</v>
+        <v>355.697756641306</v>
       </c>
       <c r="AC2" t="n">
-        <v>237.0296963145076</v>
+        <v>321.7504619723958</v>
       </c>
       <c r="AD2" t="n">
-        <v>191514.2603940041</v>
+        <v>259966.5894787404</v>
       </c>
       <c r="AE2" t="n">
-        <v>262038.2600838233</v>
+        <v>355697.756641306</v>
       </c>
       <c r="AF2" t="n">
         <v>1.105233145557474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.20138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>237029.6963145076</v>
+        <v>321750.4619723958</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.7801720416106</v>
+        <v>194.6896240044281</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.4628627545302</v>
+        <v>266.382932662759</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.4264070811805</v>
+        <v>240.9597194402972</v>
       </c>
       <c r="AD3" t="n">
-        <v>145780.1720416106</v>
+        <v>194689.6240044281</v>
       </c>
       <c r="AE3" t="n">
-        <v>199462.8627545302</v>
+        <v>266382.932662759</v>
       </c>
       <c r="AF3" t="n">
         <v>1.409100050157941e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.13425925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>180426.4070811805</v>
+        <v>240959.7194402972</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.3943673668357</v>
+        <v>180.2696539108724</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.7795701416026</v>
+        <v>246.6528934165836</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.6216602895498</v>
+        <v>223.1126874484866</v>
       </c>
       <c r="AD4" t="n">
-        <v>131394.3673668357</v>
+        <v>180269.6539108724</v>
       </c>
       <c r="AE4" t="n">
-        <v>179779.5701416026</v>
+        <v>246652.8934165836</v>
       </c>
       <c r="AF4" t="n">
         <v>1.51248639792097e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>162621.6602895498</v>
+        <v>223112.6874484866</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>158.9255497036758</v>
+        <v>226.6552283356509</v>
       </c>
       <c r="AB2" t="n">
-        <v>217.4489484048916</v>
+        <v>310.1196827316506</v>
       </c>
       <c r="AC2" t="n">
-        <v>196.6959259607069</v>
+        <v>280.522295467542</v>
       </c>
       <c r="AD2" t="n">
-        <v>158925.5497036758</v>
+        <v>226655.2283356509</v>
       </c>
       <c r="AE2" t="n">
-        <v>217448.9484048916</v>
+        <v>310119.6827316506</v>
       </c>
       <c r="AF2" t="n">
         <v>1.368315996893295e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>196695.9259607069</v>
+        <v>280522.295467542</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.1730618256706</v>
+        <v>176.5084877685061</v>
       </c>
       <c r="AB3" t="n">
-        <v>175.3720377862122</v>
+        <v>241.5066999696613</v>
       </c>
       <c r="AC3" t="n">
-        <v>158.6347766361459</v>
+        <v>218.457639481409</v>
       </c>
       <c r="AD3" t="n">
-        <v>128173.0618256706</v>
+        <v>176508.4877685061</v>
       </c>
       <c r="AE3" t="n">
-        <v>175372.0377862122</v>
+        <v>241506.6999696613</v>
       </c>
       <c r="AF3" t="n">
         <v>1.666601109187489e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.30092592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>158634.776636146</v>
+        <v>218457.639481409</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.2573332936017</v>
+        <v>176.5927592364372</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.4873417264302</v>
+        <v>241.6220039098793</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.7390761301397</v>
+        <v>218.5619389754028</v>
       </c>
       <c r="AD4" t="n">
-        <v>128257.3332936017</v>
+        <v>176592.7592364372</v>
       </c>
       <c r="AE4" t="n">
-        <v>175487.3417264302</v>
+        <v>241622.0039098793</v>
       </c>
       <c r="AF4" t="n">
         <v>1.667120433613211e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.30092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>158739.0761301397</v>
+        <v>218561.9389754028</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.1456994779715</v>
+        <v>177.244424497549</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.7568905967487</v>
+        <v>242.5136410695743</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.937285599498</v>
+        <v>219.3684795359974</v>
       </c>
       <c r="AD2" t="n">
-        <v>121145.6994779715</v>
+        <v>177244.424497549</v>
       </c>
       <c r="AE2" t="n">
-        <v>165756.8905967487</v>
+        <v>242513.6410695743</v>
       </c>
       <c r="AF2" t="n">
         <v>2.205969195614189e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.86805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>149937.285599498</v>
+        <v>219368.4795359974</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>123.7767984444958</v>
+        <v>171.2238145056704</v>
       </c>
       <c r="AB2" t="n">
-        <v>169.3568762786397</v>
+        <v>234.2759768681232</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.1936937005221</v>
+        <v>211.9170064442959</v>
       </c>
       <c r="AD2" t="n">
-        <v>123776.7984444958</v>
+        <v>171223.8145056704</v>
       </c>
       <c r="AE2" t="n">
-        <v>169356.8762786397</v>
+        <v>234275.9768681232</v>
       </c>
       <c r="AF2" t="n">
         <v>1.969876606232999e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>153193.6937005221</v>
+        <v>211917.0064442959</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.5235710246011</v>
+        <v>170.8691018592905</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.0103993511346</v>
+        <v>233.7906433765288</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.8802840446945</v>
+        <v>211.4779924999692</v>
       </c>
       <c r="AD3" t="n">
-        <v>123523.5710246011</v>
+        <v>170869.1018592904</v>
       </c>
       <c r="AE3" t="n">
-        <v>169010.3993511346</v>
+        <v>233790.6433765288</v>
       </c>
       <c r="AF3" t="n">
         <v>1.985265006150582e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>152880.2840446945</v>
+        <v>211477.9924999692</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.079324738492</v>
+        <v>184.4852986590691</v>
       </c>
       <c r="AB2" t="n">
-        <v>176.6120266850317</v>
+        <v>252.4209245421838</v>
       </c>
       <c r="AC2" t="n">
-        <v>159.7564227347979</v>
+        <v>228.3302257789439</v>
       </c>
       <c r="AD2" t="n">
-        <v>129079.324738492</v>
+        <v>184485.2986590691</v>
       </c>
       <c r="AE2" t="n">
-        <v>176612.0266850317</v>
+        <v>252420.9245421838</v>
       </c>
       <c r="AF2" t="n">
         <v>2.392423682518162e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.46990740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>159756.4227347979</v>
+        <v>228330.2257789439</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.3519901874285</v>
+        <v>229.2803256604342</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.7689113217594</v>
+        <v>313.7114567025376</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.6990362763872</v>
+        <v>283.7712755717352</v>
       </c>
       <c r="AD2" t="n">
-        <v>161351.9901874285</v>
+        <v>229280.3256604342</v>
       </c>
       <c r="AE2" t="n">
-        <v>220768.9113217595</v>
+        <v>313711.4567025377</v>
       </c>
       <c r="AF2" t="n">
         <v>1.303087745409542e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.8587962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>199699.0362763872</v>
+        <v>283771.2755717352</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.7964897703894</v>
+        <v>178.2738134568182</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.5932835207615</v>
+        <v>243.9220964570814</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.6440297953285</v>
+        <v>220.6425139181008</v>
       </c>
       <c r="AD3" t="n">
-        <v>129796.4897703894</v>
+        <v>178273.8134568182</v>
       </c>
       <c r="AE3" t="n">
-        <v>177593.2835207615</v>
+        <v>243922.0964570814</v>
       </c>
       <c r="AF3" t="n">
         <v>1.602738850917014e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.45138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>160644.0297953285</v>
+        <v>220642.5139181008</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.1361441605942</v>
+        <v>177.6134678470229</v>
       </c>
       <c r="AB4" t="n">
-        <v>176.6897695250479</v>
+        <v>243.0185824613678</v>
       </c>
       <c r="AC4" t="n">
-        <v>159.8267459072757</v>
+        <v>219.825230030048</v>
       </c>
       <c r="AD4" t="n">
-        <v>129136.1441605942</v>
+        <v>177613.467847023</v>
       </c>
       <c r="AE4" t="n">
-        <v>176689.7695250479</v>
+        <v>243018.5824613678</v>
       </c>
       <c r="AF4" t="n">
         <v>1.619867976687265e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.34722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>159826.7459072757</v>
+        <v>219825.230030048</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.8023760681716</v>
+        <v>192.8721664392374</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.5472903481577</v>
+        <v>263.8962070414973</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.5526015851667</v>
+        <v>238.7103234221867</v>
       </c>
       <c r="AD2" t="n">
-        <v>137802.3760681716</v>
+        <v>192872.1664392374</v>
       </c>
       <c r="AE2" t="n">
-        <v>188547.2903481577</v>
+        <v>263896.2070414973</v>
       </c>
       <c r="AF2" t="n">
         <v>2.485926077321716e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>170552.6015851667</v>
+        <v>238710.3234221867</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.9056257893243</v>
+        <v>211.3689686831774</v>
       </c>
       <c r="AB2" t="n">
-        <v>210.5804670418663</v>
+        <v>289.2043478929666</v>
       </c>
       <c r="AC2" t="n">
-        <v>190.4829628189924</v>
+        <v>261.6030908309985</v>
       </c>
       <c r="AD2" t="n">
-        <v>153905.6257893243</v>
+        <v>211368.9686831774</v>
       </c>
       <c r="AE2" t="n">
-        <v>210580.4670418663</v>
+        <v>289204.3478929665</v>
       </c>
       <c r="AF2" t="n">
         <v>1.541146532748639e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.11805555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>190482.9628189924</v>
+        <v>261603.0908309985</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.0478231172535</v>
+        <v>173.9227222275136</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.4641924264426</v>
+        <v>237.9687414805525</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.0044519563252</v>
+        <v>215.2573387849438</v>
       </c>
       <c r="AD3" t="n">
-        <v>126047.8231172535</v>
+        <v>173922.7222275136</v>
       </c>
       <c r="AE3" t="n">
-        <v>172464.1924264426</v>
+        <v>237968.7414805525</v>
       </c>
       <c r="AF3" t="n">
         <v>1.799114852930777e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.38194444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>156004.4519563252</v>
+        <v>215257.3387849438</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.0316295060173</v>
+        <v>214.8708522988917</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.8576032365943</v>
+        <v>293.9957795481861</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.3518951382953</v>
+        <v>265.937234973862</v>
       </c>
       <c r="AD2" t="n">
-        <v>157031.6295060173</v>
+        <v>214870.8522988918</v>
       </c>
       <c r="AE2" t="n">
-        <v>214857.6032365943</v>
+        <v>293995.7795481861</v>
       </c>
       <c r="AF2" t="n">
         <v>1.42647185216847e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>194351.8951382953</v>
+        <v>265937.234973862</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>127.5547307881729</v>
+        <v>175.7428631476176</v>
       </c>
       <c r="AB3" t="n">
-        <v>174.5260099818681</v>
+        <v>240.4591385863876</v>
       </c>
       <c r="AC3" t="n">
-        <v>157.8694925380407</v>
+        <v>217.5100558862931</v>
       </c>
       <c r="AD3" t="n">
-        <v>127554.7307881729</v>
+        <v>175742.8631476176</v>
       </c>
       <c r="AE3" t="n">
-        <v>174526.0099818681</v>
+        <v>240459.1385863876</v>
       </c>
       <c r="AF3" t="n">
         <v>1.702485558689457e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3587962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>157869.4925380407</v>
+        <v>217510.0558862931</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.381152860812</v>
+        <v>245.7209976982094</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.7007188482202</v>
+        <v>336.2063094958708</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.5377028740148</v>
+        <v>304.1192511862041</v>
       </c>
       <c r="AD2" t="n">
-        <v>177381.152860812</v>
+        <v>245720.9976982094</v>
       </c>
       <c r="AE2" t="n">
-        <v>242700.7188482202</v>
+        <v>336206.3094958708</v>
       </c>
       <c r="AF2" t="n">
         <v>1.174010513113953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>219537.7028740148</v>
+        <v>304119.251186204</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.7865498019879</v>
+        <v>193.5675702969196</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.1033449707597</v>
+        <v>264.8476892786307</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.1966397665975</v>
+        <v>239.5709975300221</v>
       </c>
       <c r="AD3" t="n">
-        <v>144786.5498019879</v>
+        <v>193567.5702969196</v>
       </c>
       <c r="AE3" t="n">
-        <v>198103.3449707596</v>
+        <v>264847.6892786307</v>
       </c>
       <c r="AF3" t="n">
         <v>1.444109627649615e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>179196.6397665975</v>
+        <v>239570.9975300221</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.0459688374152</v>
+        <v>178.792823913566</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.9346317865056</v>
+        <v>244.6322294611288</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.9528002616754</v>
+        <v>221.2848728249201</v>
       </c>
       <c r="AD4" t="n">
-        <v>130045.9688374152</v>
+        <v>178792.823913566</v>
       </c>
       <c r="AE4" t="n">
-        <v>177934.6317865056</v>
+        <v>244632.2294611289</v>
       </c>
       <c r="AF4" t="n">
         <v>1.563030765212984e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.25462962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>160952.8002616754</v>
+        <v>221284.8728249201</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.8019079998946</v>
+        <v>183.8861945163494</v>
       </c>
       <c r="AB2" t="n">
-        <v>173.4959646307487</v>
+        <v>251.6012038235057</v>
       </c>
       <c r="AC2" t="n">
-        <v>156.9377532695542</v>
+        <v>227.5887380551709</v>
       </c>
       <c r="AD2" t="n">
-        <v>126801.9079998946</v>
+        <v>183886.1945163494</v>
       </c>
       <c r="AE2" t="n">
-        <v>173495.9646307488</v>
+        <v>251601.2038235057</v>
       </c>
       <c r="AF2" t="n">
         <v>1.821127523857664e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.97222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>156937.7532695541</v>
+        <v>227588.7380551709</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.3350278107953</v>
+        <v>171.8664179491205</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.1206703249518</v>
+        <v>235.1552152491143</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.884592315046</v>
+        <v>212.7123315482242</v>
       </c>
       <c r="AD3" t="n">
-        <v>124335.0278107953</v>
+        <v>171866.4179491205</v>
       </c>
       <c r="AE3" t="n">
-        <v>170120.6703249518</v>
+        <v>235155.2152491143</v>
       </c>
       <c r="AF3" t="n">
         <v>1.918639540743682e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>153884.592315046</v>
+        <v>212712.3315482242</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.8563957125152</v>
+        <v>178.2278305056145</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.7292965385559</v>
+        <v>243.8591805546199</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.8168864829997</v>
+        <v>220.5856026210673</v>
       </c>
       <c r="AD2" t="n">
-        <v>121856.3957125152</v>
+        <v>178227.8305056145</v>
       </c>
       <c r="AE2" t="n">
-        <v>166729.2965385559</v>
+        <v>243859.1805546199</v>
       </c>
       <c r="AF2" t="n">
         <v>2.129994050272519e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.65972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>150816.8864829997</v>
+        <v>220585.6026210673</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.5895793953192</v>
+        <v>176.0862620946565</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.3101796173491</v>
+        <v>240.9289921754184</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.3879449311189</v>
+        <v>217.9350673082306</v>
       </c>
       <c r="AD2" t="n">
-        <v>129589.5793953192</v>
+        <v>176086.2620946565</v>
       </c>
       <c r="AE2" t="n">
-        <v>177310.1796173491</v>
+        <v>240928.9921754184</v>
       </c>
       <c r="AF2" t="n">
         <v>2.310045038547058e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>160387.9449311189</v>
+        <v>217935.0673082306</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>146.6980379082131</v>
+        <v>201.3711762324224</v>
       </c>
       <c r="AB2" t="n">
-        <v>200.7187273265993</v>
+        <v>275.5249271903768</v>
       </c>
       <c r="AC2" t="n">
-        <v>181.5624137011087</v>
+        <v>249.229214841072</v>
       </c>
       <c r="AD2" t="n">
-        <v>146698.0379082131</v>
+        <v>201371.1762324224</v>
       </c>
       <c r="AE2" t="n">
-        <v>200718.7273265993</v>
+        <v>275524.9271903768</v>
       </c>
       <c r="AF2" t="n">
         <v>2.563450588505435e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.15972222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>181562.4137011087</v>
+        <v>249229.214841072</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>155.9597159674274</v>
+        <v>213.6150073130253</v>
       </c>
       <c r="AB2" t="n">
-        <v>213.3909638436085</v>
+        <v>292.2774770345539</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.0252297505343</v>
+        <v>264.3829248404776</v>
       </c>
       <c r="AD2" t="n">
-        <v>155959.7159674274</v>
+        <v>213615.0073130253</v>
       </c>
       <c r="AE2" t="n">
-        <v>213390.9638436085</v>
+        <v>292277.4770345539</v>
       </c>
       <c r="AF2" t="n">
         <v>1.470783093348786e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.32638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>193025.2297505343</v>
+        <v>264382.9248404776</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.6380756567809</v>
+        <v>174.6729318101618</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.2718019911278</v>
+        <v>238.9952113284421</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.7349843976444</v>
+        <v>216.1858437912106</v>
       </c>
       <c r="AD3" t="n">
-        <v>126638.0756567809</v>
+        <v>174672.9318101618</v>
       </c>
       <c r="AE3" t="n">
-        <v>173271.8019911278</v>
+        <v>238995.2113284421</v>
       </c>
       <c r="AF3" t="n">
         <v>1.756574697768315e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>156734.9843976444</v>
+        <v>216185.8437912106</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.1621388039434</v>
+        <v>242.2149551281767</v>
       </c>
       <c r="AB2" t="n">
-        <v>238.2963218027375</v>
+        <v>331.4091873758729</v>
       </c>
       <c r="AC2" t="n">
-        <v>215.5536553009414</v>
+        <v>299.7799596685339</v>
       </c>
       <c r="AD2" t="n">
-        <v>174162.1388039434</v>
+        <v>242214.9551281767</v>
       </c>
       <c r="AE2" t="n">
-        <v>238296.3218027375</v>
+        <v>331409.1873758729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.236924660705401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.24074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>215553.6553009414</v>
+        <v>299779.9596685339</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.2203620186378</v>
+        <v>190.6041693576157</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.9097324645098</v>
+        <v>260.7930333774545</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.6439615065519</v>
+        <v>235.9033122973076</v>
       </c>
       <c r="AD3" t="n">
-        <v>132220.3620186378</v>
+        <v>190604.1693576157</v>
       </c>
       <c r="AE3" t="n">
-        <v>180909.7324645098</v>
+        <v>260793.0333774545</v>
       </c>
       <c r="AF3" t="n">
         <v>1.521482844297599e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.76388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>163643.9615065519</v>
+        <v>235903.3122973076</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.7218806722737</v>
+        <v>178.3362048293683</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.4912000611985</v>
+        <v>244.0074630855175</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.5516890378712</v>
+        <v>220.7197332753318</v>
       </c>
       <c r="AD4" t="n">
-        <v>129721.8806722737</v>
+        <v>178336.2048293682</v>
       </c>
       <c r="AE4" t="n">
-        <v>177491.2000611985</v>
+        <v>244007.4630855175</v>
       </c>
       <c r="AF4" t="n">
         <v>1.58733405937582e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH4" t="n">
-        <v>160551.6890378712</v>
+        <v>220719.7332753318</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.387646718042</v>
+        <v>237.6250015799382</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.2906746275428</v>
+        <v>325.129010436717</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.6938102421118</v>
+        <v>294.0991540021654</v>
       </c>
       <c r="AD2" t="n">
-        <v>165387.646718042</v>
+        <v>237625.0015799382</v>
       </c>
       <c r="AE2" t="n">
-        <v>226290.6746275428</v>
+        <v>325129.010436717</v>
       </c>
       <c r="AF2" t="n">
         <v>2.554997623684357e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>204693.8102421118</v>
+        <v>294099.1540021654</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.6605088066299</v>
+        <v>169.9102135279828</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.8295195488893</v>
+        <v>232.4786500584667</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.8121057533999</v>
+        <v>210.2912139827884</v>
       </c>
       <c r="AD2" t="n">
-        <v>122660.50880663</v>
+        <v>169910.2135279828</v>
       </c>
       <c r="AE2" t="n">
-        <v>167829.5195488893</v>
+        <v>232478.6500584667</v>
       </c>
       <c r="AF2" t="n">
         <v>2.051394186008612e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>151812.1057533999</v>
+        <v>210291.2139827884</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>140.2081668418648</v>
+        <v>197.5378545365971</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.8389994207213</v>
+        <v>270.2800073319333</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.5301545637886</v>
+        <v>244.4848627726256</v>
       </c>
       <c r="AD2" t="n">
-        <v>140208.1668418648</v>
+        <v>197537.8545365971</v>
       </c>
       <c r="AE2" t="n">
-        <v>191838.9994207213</v>
+        <v>270280.0073319334</v>
       </c>
       <c r="AF2" t="n">
         <v>1.672668428172387e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.52777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>173530.1545637886</v>
+        <v>244484.8627726256</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.0104075255227</v>
+        <v>172.7178274634285</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.0447546462915</v>
+        <v>236.3201513081267</v>
       </c>
       <c r="AC3" t="n">
-        <v>154.7204833257178</v>
+        <v>213.766087744763</v>
       </c>
       <c r="AD3" t="n">
-        <v>125010.4075255227</v>
+        <v>172717.8274634285</v>
       </c>
       <c r="AE3" t="n">
-        <v>171044.7546462915</v>
+        <v>236320.1513081267</v>
       </c>
       <c r="AF3" t="n">
         <v>1.864165709242701e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.34722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>154720.4833257178</v>
+        <v>213766.0877447629</v>
       </c>
     </row>
   </sheetData>
